--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Item" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Wand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,123 +45,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BoneShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoneweaveBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VitalityPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_Kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemLocType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WidthSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDurability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDurability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurDurability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BoneVisage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneweaveBoots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VitalityPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemName_Eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemName_Kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활력물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템감정스크롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈스크롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본실드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본헬름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemLocType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WidthSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeightSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDurability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxDurability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurDurability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PullDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PullArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스탈소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrystalSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloves</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +470,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,16 +491,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -537,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -549,36 +521,15 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -616,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -654,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -692,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -730,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -768,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -806,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -844,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -882,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -920,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -958,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -996,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1034,7 +985,7 @@
         <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1069,7 +1020,7 @@
         <v>-1</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1104,7 +1055,7 @@
         <v>-1</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1139,7 +1090,7 @@
         <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX\Resources\DataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX_AR38_SJH\DirectX\Resources\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,6 +1007,9 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -1042,6 +1045,9 @@
       <c r="F16">
         <v>200</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
         <v>250</v>
       </c>
@@ -1075,6 +1081,9 @@
         <v>-1</v>
       </c>
       <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
         <v>-1</v>
       </c>
       <c r="H17">

--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="2" r:id="rId1"/>
+    <sheet name="Item" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,46 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Wand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boneweave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buckler</t>
-  </si>
-  <si>
-    <t>PortalScroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdentifyScoll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneweaveBoots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VitalityPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemName_Eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemName_Kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,15 +86,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CrystalSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoneVisage</t>
+    <t>Itemabbreviation_Inv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itemabbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invwnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wnd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invbwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invywn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invgwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invbhm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invchn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invbrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invcrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invbsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invhbt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invtgl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invtbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aml1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invaml1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invrin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invrin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invbsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invchm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invvpl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,8 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,235 +568,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O5">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L2" t="s">
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="Q6">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -704,25 +950,46 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -730,151 +997,235 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>40</v>
-      </c>
       <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+      <c r="H10">
+        <v>450</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>45</v>
       </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
+      <c r="D11">
         <v>45</v>
       </c>
-      <c r="H10">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
       <c r="E11">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>300</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -885,133 +1236,196 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
       <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
         <v>1000</v>
       </c>
-      <c r="D14">
-        <v>1500</v>
-      </c>
-      <c r="E14">
-        <v>1500</v>
-      </c>
       <c r="F14">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G14">
+        <v>550</v>
+      </c>
+      <c r="H14">
+        <v>800</v>
+      </c>
+      <c r="I14">
+        <v>456</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>300</v>
+      </c>
+      <c r="M14">
+        <v>300</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <v>300</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
         <v>350</v>
       </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
       <c r="D15">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1022,49 +1436,91 @@
       <c r="K15">
         <v>-1</v>
       </c>
-      <c r="L15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>450</v>
+        <v>-1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
         <v>500</v>
       </c>
-      <c r="E16">
-        <v>650</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="I16">
+        <v>600</v>
+      </c>
+      <c r="J16">
         <v>200</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>250</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
       <c r="K16">
-        <v>-1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -1096,15 +1552,35 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="S17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">wnd </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bwn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +231,10 @@
   </si>
   <si>
     <t>invvpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wnd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,65 +571,65 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
         <v>16</v>
@@ -640,55 +640,55 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
         <v>15</v>

--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,19 +944,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1582,5 +1582,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/DataFile/ItemInfo.xlsx
+++ b/Resources/DataFile/ItemInfo.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
